--- a/Assets/Resources/Configs/Excel/IngredientConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/IngredientConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="9840"/>
+    <workbookView windowWidth="19080" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredient" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>材料Id</t>
   </si>
@@ -22,12 +22,18 @@
     <t>名字</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>#MaterialInfo</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -37,25 +43,43 @@
     <t>铁块</t>
   </si>
   <si>
-    <t>木材</t>
+    <t>i_2</t>
   </si>
   <si>
     <t>硬木</t>
   </si>
   <si>
+    <t>i_3</t>
+  </si>
+  <si>
     <t>麻绳</t>
   </si>
   <si>
-    <t xml:space="preserve"> 狼牙</t>
+    <t>i_4</t>
+  </si>
+  <si>
+    <t>狼牙</t>
+  </si>
+  <si>
+    <t>i_1</t>
   </si>
   <si>
     <t>兽皮</t>
   </si>
   <si>
+    <t>i_5</t>
+  </si>
+  <si>
     <t>细木枝</t>
   </si>
   <si>
     <t>铜块</t>
+  </si>
+  <si>
+    <t>细铁</t>
+  </si>
+  <si>
+    <t>i_6</t>
   </si>
 </sst>
 </file>
@@ -467,103 +491,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/IngredientConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/IngredientConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="8340"/>
+    <workbookView windowWidth="28700" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredient" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>材料Id</t>
   </si>
@@ -80,6 +80,48 @@
   </si>
   <si>
     <t>i_6</t>
+  </si>
+  <si>
+    <t>绒布</t>
+  </si>
+  <si>
+    <t>i_7</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>i_8</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>i_9</t>
+  </si>
+  <si>
+    <t>秘能水晶</t>
+  </si>
+  <si>
+    <t>火山石</t>
+  </si>
+  <si>
+    <t>裁决水晶</t>
+  </si>
+  <si>
+    <t>辉光水晶</t>
+  </si>
+  <si>
+    <t>精金锭</t>
+  </si>
+  <si>
+    <t>圣羽丝线</t>
+  </si>
+  <si>
+    <t>鱼鳞</t>
+  </si>
+  <si>
+    <t>兽骨</t>
   </si>
 </sst>
 </file>
@@ -141,8 +183,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -491,10 +536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -579,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -621,6 +666,103 @@
       </c>
       <c r="C11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
